--- a/fakturi/111111111-1-2021.xlsx
+++ b/fakturi/111111111-1-2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="66">
   <si>
     <t>ФАКТУРА</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Трансакциска сметка: 210-0741982101-71</t>
   </si>
   <si>
-    <t>Адреса</t>
+    <t>1111111111111</t>
   </si>
   <si>
     <t>Депонент банка: НЛБ Банка</t>
@@ -48,86 +48,89 @@
     <t>Датум на издавање:</t>
   </si>
   <si>
-    <t>24-8-2021</t>
+    <t>16-9-2021</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t>Рок за плаќање</t>
+  </si>
+  <si>
+    <t>26-9-2021</t>
+  </si>
+  <si>
     <t>Фактура за пресметковен период:</t>
   </si>
   <si>
     <t>2021-03-01 - 2021-03-31</t>
   </si>
   <si>
-    <t>Електрична енергија:</t>
-  </si>
-  <si>
-    <t>3325.40</t>
+    <t>Електрична енергија (НТ):</t>
   </si>
   <si>
     <t>kWh</t>
   </si>
   <si>
-    <t>Цена по kWh без ДДВ:</t>
-  </si>
-  <si>
-    <t>2.00</t>
+    <t>Цена по kWh без ДДВ (НТ):</t>
   </si>
   <si>
     <t>ден.</t>
   </si>
   <si>
+    <t>Електрична енергија (ВТ):</t>
+  </si>
+  <si>
+    <t>Цена по kWh без ДДВ (ВТ):</t>
+  </si>
+  <si>
     <t>Вкупен износ без ДДВ:</t>
   </si>
   <si>
-    <t>6650.80</t>
+    <t>5167.98</t>
   </si>
   <si>
     <t xml:space="preserve">Обновлива Енергија:                                                                                                                                </t>
   </si>
   <si>
-    <t>977.62</t>
+    <t>130.40</t>
   </si>
   <si>
     <t xml:space="preserve">Цена на Обновлива енергија:                                                                                 </t>
   </si>
   <si>
-    <t>5.00</t>
+    <t>1.00</t>
   </si>
   <si>
     <t xml:space="preserve">Вкупен износ без ДДВ за обновлива енергија:                                                                                          </t>
   </si>
   <si>
-    <t>4888.10</t>
-  </si>
-  <si>
-    <t>Надомест за организирање на пазарот на ел. енергија (5 мкд по kWh):</t>
+    <t>Надомест за организирање на пазарот на ел. енергија (1 мкд по kWh):</t>
   </si>
   <si>
     <t>Вкупен износ на фактурата без ДДВ (даночна основа):</t>
   </si>
   <si>
-    <t>28165.90</t>
-  </si>
-  <si>
-    <t>ДДВ (4%):</t>
-  </si>
-  <si>
-    <t>1126.64</t>
+    <t>10466.36</t>
+  </si>
+  <si>
+    <t>ДДВ (1%):</t>
+  </si>
+  <si>
+    <t>104.66</t>
   </si>
   <si>
     <t>Вкупно за наплата</t>
   </si>
   <si>
-    <t>29574.19</t>
+    <t>10571.02</t>
   </si>
   <si>
     <t>Рок за наплата:</t>
   </si>
   <si>
-    <t>3.9.2021</t>
+    <t>26.9.2021</t>
   </si>
   <si>
     <t>год.</t>
@@ -177,9 +180,6 @@
   </si>
   <si>
     <t>Адреса на место на потрошувачка:</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Пресметковен период:</t>
@@ -853,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L84"/>
+  <dimension ref="A4:L266"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="106" zoomScaleNormal="106">
       <selection activeCell="C71" sqref="C71"/>
@@ -1039,7 +1039,12 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1064,14 +1069,14 @@
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="H20" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1098,7 +1103,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1107,52 +1112,39 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="16" t="s">
-        <v>15</v>
+      <c r="J23" s="16">
+        <v>1643.08</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3524.9</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="17" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1161,16 +1153,17 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="16" t="s">
-        <v>23</v>
+      <c r="J26" s="17">
+        <v>1</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1179,16 +1172,17 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="18" t="s">
-        <v>25</v>
+      <c r="J27" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1197,16 +1191,17 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="17" t="s">
-        <v>27</v>
+      <c r="J28" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1215,16 +1210,17 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="17">
-        <v>16627</v>
+      <c r="J29" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1234,19 +1230,35 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="5"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="17">
+        <v>5167.98</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1256,672 +1268,3487 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="17"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H34" s="19" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="19"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22" t="s">
+      <c r="K36" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
+      <c r="K38" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" ht="33" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="28"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
-        <v>39</v>
-      </c>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+    </row>
+    <row r="44" ht="33" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="I44" s="29" t="s">
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+    <row r="50" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+    <row r="52" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+    <row r="53" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
+    <row r="57" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
-      <c r="E60" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="35"/>
+      <c r="E60" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="35" t="s">
+        <v>45</v>
+      </c>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="40" t="s">
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C64" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D64" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E64" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F64" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B65" s="42">
         <v>100368.551</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C65" s="42">
         <v>102081.067</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D65" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E65" s="42">
         <v>1</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F65" s="42">
         <v>1712.52</v>
       </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="42">
+      <c r="B66" s="42">
         <v>59584.96</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C66" s="42">
         <v>60621.159</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D66" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E66" s="42">
         <v>2.5</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F66" s="42">
         <v>2590.5</v>
       </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="42" t="s">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F67" s="42">
         <v>4303.02</v>
       </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
-      <c r="E69" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
+      <c r="E69" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="40" t="s">
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="40" t="s">
+      <c r="C73" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="D73" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E73" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="40" t="s">
+      <c r="F73" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="42">
+      <c r="B74" s="42">
         <v>0</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C74" s="42">
         <v>1.413</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D74" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E74" s="42">
         <v>1</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F74" s="42">
         <v>-1.413</v>
       </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="42">
+      <c r="B75" s="42">
         <v>1.212</v>
       </c>
-      <c r="C73" s="42">
+      <c r="C75" s="42">
         <v>1.413</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D75" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E75" s="42">
         <v>1</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F75" s="42">
         <v>-0.201</v>
       </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="42" t="s">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F76" s="42">
         <v>-1.614</v>
       </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
-      <c r="E78" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
+      <c r="E78" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40" t="s">
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C82" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D80" s="40" t="s">
+      <c r="D82" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E82" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="40" t="s">
+      <c r="F82" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="42">
+      <c r="B83" s="42">
         <v>0</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C83" s="42">
         <v>1.413</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D83" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E83" s="42">
         <v>1</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F83" s="42">
         <v>-1.413</v>
       </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="42">
+      <c r="B84" s="42">
         <v>1.212</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C84" s="42">
         <v>1.413</v>
       </c>
-      <c r="D82" s="42" t="s">
+      <c r="D84" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E84" s="42">
         <v>1</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F84" s="42">
         <v>-0.201</v>
       </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="42" t="s">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="43"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="42">
+      <c r="F85" s="42">
         <v>-1.614</v>
       </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="43"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="42">
+        <v>0</v>
+      </c>
+      <c r="C92" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="42">
+        <v>1</v>
+      </c>
+      <c r="F92" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C93" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="42">
+        <v>1</v>
+      </c>
+      <c r="F93" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="42">
+        <v>0</v>
+      </c>
+      <c r="C101" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="42">
+        <v>1</v>
+      </c>
+      <c r="F101" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C102" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="42">
+        <v>1</v>
+      </c>
+      <c r="F102" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="43"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="42">
+        <v>0</v>
+      </c>
+      <c r="C110" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="42">
+        <v>1</v>
+      </c>
+      <c r="F110" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C111" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="42">
+        <v>1</v>
+      </c>
+      <c r="F111" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="43"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="43"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F118" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" s="42">
+        <v>0</v>
+      </c>
+      <c r="C119" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="42">
+        <v>1</v>
+      </c>
+      <c r="F119" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B120" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C120" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="42">
+        <v>1</v>
+      </c>
+      <c r="F120" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="43"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="43"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="39"/>
+      <c r="B127" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" s="42">
+        <v>0</v>
+      </c>
+      <c r="C128" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D128" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="42">
+        <v>1</v>
+      </c>
+      <c r="F128" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C129" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E129" s="42">
+        <v>1</v>
+      </c>
+      <c r="F129" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="43"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="43"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F136" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" s="42">
+        <v>0</v>
+      </c>
+      <c r="C137" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D137" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="42">
+        <v>1</v>
+      </c>
+      <c r="F137" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C138" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D138" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E138" s="42">
+        <v>1</v>
+      </c>
+      <c r="F138" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="43"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F139" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="43"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" s="42">
+        <v>0</v>
+      </c>
+      <c r="C146" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D146" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="42">
+        <v>1</v>
+      </c>
+      <c r="F146" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C147" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D147" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E147" s="42">
+        <v>1</v>
+      </c>
+      <c r="F147" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="43"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="43"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="39"/>
+      <c r="B154" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="42">
+        <v>0</v>
+      </c>
+      <c r="C155" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D155" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="42">
+        <v>1</v>
+      </c>
+      <c r="F155" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C156" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D156" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E156" s="42">
+        <v>1</v>
+      </c>
+      <c r="F156" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="43"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
+      <c r="E157" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F157" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="43"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="39"/>
+      <c r="B163" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D163" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F163" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="42">
+        <v>0</v>
+      </c>
+      <c r="C164" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D164" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="42">
+        <v>1</v>
+      </c>
+      <c r="F164" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C165" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D165" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="42">
+        <v>1</v>
+      </c>
+      <c r="F165" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="43"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F166" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="43"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F171" s="38"/>
+      <c r="G171" s="38"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="39"/>
+      <c r="B172" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E172" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F172" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" s="42">
+        <v>0</v>
+      </c>
+      <c r="C173" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D173" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="42">
+        <v>1</v>
+      </c>
+      <c r="F173" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B174" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C174" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D174" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E174" s="42">
+        <v>1</v>
+      </c>
+      <c r="F174" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="43"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="44"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F175" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="43"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F179" s="37"/>
+      <c r="G179" s="37"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180" s="38"/>
+      <c r="G180" s="38"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="39"/>
+      <c r="B181" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D181" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E181" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F181" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="42">
+        <v>0</v>
+      </c>
+      <c r="C182" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D182" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="42">
+        <v>1</v>
+      </c>
+      <c r="F182" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C183" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E183" s="42">
+        <v>1</v>
+      </c>
+      <c r="F183" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="43"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F184" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="43"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="44"/>
+      <c r="E185" s="44"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="36"/>
+      <c r="G187" s="36"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F188" s="37"/>
+      <c r="G188" s="37"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F189" s="38"/>
+      <c r="G189" s="38"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="39"/>
+      <c r="B190" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C190" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D190" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F190" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" s="42">
+        <v>0</v>
+      </c>
+      <c r="C191" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D191" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="42">
+        <v>1</v>
+      </c>
+      <c r="F191" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B192" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C192" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D192" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E192" s="42">
+        <v>1</v>
+      </c>
+      <c r="F192" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="43"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F193" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="43"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="44"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F197" s="37"/>
+      <c r="G197" s="37"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F198" s="38"/>
+      <c r="G198" s="38"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="39"/>
+      <c r="B199" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C199" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D199" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E199" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F199" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" s="42">
+        <v>0</v>
+      </c>
+      <c r="C200" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D200" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="42">
+        <v>1</v>
+      </c>
+      <c r="F200" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B201" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C201" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D201" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E201" s="42">
+        <v>1</v>
+      </c>
+      <c r="F201" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="43"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="44"/>
+      <c r="D202" s="44"/>
+      <c r="E202" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F202" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="43"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="44"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="44"/>
+      <c r="F203" s="44"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F207" s="38"/>
+      <c r="G207" s="38"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="39"/>
+      <c r="B208" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C208" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D208" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F208" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="42">
+        <v>0</v>
+      </c>
+      <c r="C209" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D209" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="42">
+        <v>1</v>
+      </c>
+      <c r="F209" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B210" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C210" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D210" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E210" s="42">
+        <v>1</v>
+      </c>
+      <c r="F210" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="43"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="44"/>
+      <c r="D211" s="44"/>
+      <c r="E211" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="43"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="44"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="44"/>
+      <c r="F212" s="44"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F215" s="37"/>
+      <c r="G215" s="37"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F216" s="38"/>
+      <c r="G216" s="38"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="39"/>
+      <c r="B217" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C217" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D217" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F217" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B218" s="42">
+        <v>0</v>
+      </c>
+      <c r="C218" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D218" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="42">
+        <v>1</v>
+      </c>
+      <c r="F218" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B219" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C219" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D219" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E219" s="42">
+        <v>1</v>
+      </c>
+      <c r="F219" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="43"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F220" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="43"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="44"/>
+      <c r="E221" s="44"/>
+      <c r="F221" s="44"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" s="36"/>
+      <c r="G223" s="36"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F224" s="37"/>
+      <c r="G224" s="37"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B225" s="32"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
+      <c r="E225" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F225" s="38"/>
+      <c r="G225" s="38"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="39"/>
+      <c r="B226" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C226" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F226" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B227" s="42">
+        <v>0</v>
+      </c>
+      <c r="C227" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D227" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="42">
+        <v>1</v>
+      </c>
+      <c r="F227" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B228" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C228" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D228" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E228" s="42">
+        <v>1</v>
+      </c>
+      <c r="F228" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="43"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="44"/>
+      <c r="D229" s="44"/>
+      <c r="E229" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F229" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="43"/>
+      <c r="B230" s="44"/>
+      <c r="C230" s="44"/>
+      <c r="D230" s="44"/>
+      <c r="E230" s="44"/>
+      <c r="F230" s="44"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="32"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" s="36"/>
+      <c r="G232" s="36"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B233" s="32"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F233" s="37"/>
+      <c r="G233" s="37"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F234" s="38"/>
+      <c r="G234" s="38"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="39"/>
+      <c r="B235" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E235" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F235" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B236" s="42">
+        <v>0</v>
+      </c>
+      <c r="C236" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D236" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="42">
+        <v>1</v>
+      </c>
+      <c r="F236" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B237" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C237" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D237" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E237" s="42">
+        <v>1</v>
+      </c>
+      <c r="F237" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="43"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="44"/>
+      <c r="D238" s="44"/>
+      <c r="E238" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F238" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="43"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="44"/>
+      <c r="D239" s="44"/>
+      <c r="E239" s="44"/>
+      <c r="F239" s="44"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B240" s="32"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F240" s="33"/>
+      <c r="G240" s="33"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" s="32"/>
+      <c r="C241" s="32"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F241" s="36"/>
+      <c r="G241" s="36"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B242" s="32"/>
+      <c r="C242" s="32"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F242" s="37"/>
+      <c r="G242" s="37"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" s="32"/>
+      <c r="C243" s="32"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F243" s="38"/>
+      <c r="G243" s="38"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="39"/>
+      <c r="B244" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C244" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D244" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F244" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" s="42">
+        <v>0</v>
+      </c>
+      <c r="C245" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D245" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="42">
+        <v>1</v>
+      </c>
+      <c r="F245" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B246" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C246" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D246" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E246" s="42">
+        <v>1</v>
+      </c>
+      <c r="F246" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="43"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="44"/>
+      <c r="E247" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F247" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="43"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="44"/>
+      <c r="F248" s="44"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F249" s="33"/>
+      <c r="G249" s="33"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F250" s="36"/>
+      <c r="G250" s="36"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F251" s="37"/>
+      <c r="G251" s="37"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F252" s="38"/>
+      <c r="G252" s="38"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="39"/>
+      <c r="B253" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C253" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D253" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E253" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F253" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254" s="42">
+        <v>0</v>
+      </c>
+      <c r="C254" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D254" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="42">
+        <v>1</v>
+      </c>
+      <c r="F254" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C255" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E255" s="42">
+        <v>1</v>
+      </c>
+      <c r="F255" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="43"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="44"/>
+      <c r="D256" s="44"/>
+      <c r="E256" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F256" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="43"/>
+      <c r="B257" s="44"/>
+      <c r="C257" s="44"/>
+      <c r="D257" s="44"/>
+      <c r="E257" s="44"/>
+      <c r="F257" s="44"/>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F258" s="33"/>
+      <c r="G258" s="33"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" s="36"/>
+      <c r="G259" s="36"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B260" s="32"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F260" s="37"/>
+      <c r="G260" s="37"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F261" s="38"/>
+      <c r="G261" s="38"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="39"/>
+      <c r="B262" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C262" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D262" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E262" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F262" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B263" s="42">
+        <v>0</v>
+      </c>
+      <c r="C263" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D263" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="42">
+        <v>1</v>
+      </c>
+      <c r="F263" s="42">
+        <v>-1.413</v>
+      </c>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" s="42">
+        <v>1.212</v>
+      </c>
+      <c r="C264" s="42">
+        <v>1.413</v>
+      </c>
+      <c r="D264" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E264" s="42">
+        <v>1</v>
+      </c>
+      <c r="F264" s="42">
+        <v>-0.201</v>
+      </c>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="43"/>
+      <c r="B265" s="44"/>
+      <c r="C265" s="44"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F265" s="42">
+        <v>-1.614</v>
+      </c>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="43"/>
+      <c r="B266" s="44"/>
+      <c r="C266" s="44"/>
+      <c r="D266" s="44"/>
+      <c r="E266" s="44"/>
+      <c r="F266" s="44"/>
+      <c r="G266" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="213">
     <mergeCell ref="B7:F9"/>
     <mergeCell ref="G7:K9"/>
     <mergeCell ref="H10:K10"/>
@@ -1940,41 +4767,201 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B39:F42"/>
-    <mergeCell ref="B44:E46"/>
-    <mergeCell ref="I44:K46"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="I58:K60"/>
-    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B41:F44"/>
+    <mergeCell ref="B46:E48"/>
+    <mergeCell ref="I46:K48"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="E60:G60"/>
+    <mergeCell ref="I60:K62"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="E69:G69"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="E70:G70"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="E72:G72"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="E79:G79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="E134:G134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="E168:G168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="E170:G170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="E195:G195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="E206:G206"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="E213:G213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="E214:G214"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="E215:G215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="E222:G222"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="E223:G223"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="E225:G225"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="E232:G232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="E233:G233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="E234:G234"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="E243:G243"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="E249:G249"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="E250:G250"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="E251:G251"/>
+    <mergeCell ref="A252:D252"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="E258:G258"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="E259:G259"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="E261:G261"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
